--- a/output/roster-output-python.xlsx
+++ b/output/roster-output-python.xlsx
@@ -19,7 +19,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>height_in</t>
+    <t>height</t>
   </si>
   <si>
     <t>injury</t>
